--- a/simulation_data/iterative_algorithm/i_error_level_12_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_12_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.20514048701884</v>
+        <v>88.81416467745566</v>
       </c>
       <c r="D2" t="n">
-        <v>13.13223048894815</v>
+        <v>12.47428442065229</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.82248075678135</v>
+        <v>88.87744602593757</v>
       </c>
       <c r="D3" t="n">
-        <v>12.5176708186182</v>
+        <v>10.88720168367696</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>86.92751006912709</v>
+        <v>86.66042649598455</v>
       </c>
       <c r="D4" t="n">
-        <v>13.49195262222833</v>
+        <v>10.54218585016002</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.74295717371413</v>
+        <v>87.06270578020523</v>
       </c>
       <c r="D5" t="n">
-        <v>12.10278401371542</v>
+        <v>11.94587613718675</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.06825322743049</v>
+        <v>87.01627689228899</v>
       </c>
       <c r="D6" t="n">
-        <v>12.73705078072953</v>
+        <v>11.87070062897922</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.30940799699674</v>
+        <v>83.15748839914518</v>
       </c>
       <c r="D7" t="n">
-        <v>14.61707763652436</v>
+        <v>12.85153068629069</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.83130411443993</v>
+        <v>84.11853641913549</v>
       </c>
       <c r="D8" t="n">
-        <v>12.76413375246531</v>
+        <v>12.95240361821229</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>81.76259170714698</v>
+        <v>83.75579971998022</v>
       </c>
       <c r="D9" t="n">
-        <v>14.35489476803387</v>
+        <v>11.62342589634738</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.80969305301277</v>
+        <v>80.59866585611655</v>
       </c>
       <c r="D10" t="n">
-        <v>12.98001977936294</v>
+        <v>13.30393454818901</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79.82489603415435</v>
+        <v>80.19354512268869</v>
       </c>
       <c r="D11" t="n">
-        <v>13.7579256238417</v>
+        <v>11.95368117234881</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.15162243058734</v>
+        <v>78.8225779497527</v>
       </c>
       <c r="D12" t="n">
-        <v>12.86291016576406</v>
+        <v>13.01406452854553</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.81243666791032</v>
+        <v>80.3069971935907</v>
       </c>
       <c r="D13" t="n">
-        <v>12.63191628232716</v>
+        <v>11.9147093651147</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.97502925383692</v>
+        <v>80.00609595580556</v>
       </c>
       <c r="D14" t="n">
-        <v>13.71341043515277</v>
+        <v>12.39425237106406</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.95346219296134</v>
+        <v>75.80859522916484</v>
       </c>
       <c r="D15" t="n">
-        <v>13.48598720635657</v>
+        <v>13.17962022684322</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.72650246321356</v>
+        <v>76.81291700763614</v>
       </c>
       <c r="D16" t="n">
-        <v>13.26739649273407</v>
+        <v>11.29111047582166</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.1897095590071</v>
+        <v>73.0849551691184</v>
       </c>
       <c r="D17" t="n">
-        <v>12.04454350437011</v>
+        <v>13.27607776900334</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.21686574733428</v>
+        <v>72.54335218061235</v>
       </c>
       <c r="D18" t="n">
-        <v>13.32802779462365</v>
+        <v>12.35461036499516</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.02441394903735</v>
+        <v>73.53030029031848</v>
       </c>
       <c r="D19" t="n">
-        <v>12.51449305512607</v>
+        <v>12.58626288207092</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.75483367971592</v>
+        <v>70.11571196805505</v>
       </c>
       <c r="D20" t="n">
-        <v>14.97628340659146</v>
+        <v>13.46139727600799</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.93535633398484</v>
+        <v>71.19824243679186</v>
       </c>
       <c r="D21" t="n">
-        <v>14.83832075772422</v>
+        <v>12.15326319737559</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.93307023635683</v>
+        <v>68.94943606372478</v>
       </c>
       <c r="D22" t="n">
-        <v>13.13418922378075</v>
+        <v>13.61237796620588</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.10458811161101</v>
+        <v>69.49201294869624</v>
       </c>
       <c r="D23" t="n">
-        <v>14.17271468614652</v>
+        <v>13.56005273567785</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.60603077873112</v>
+        <v>69.23602211385642</v>
       </c>
       <c r="D24" t="n">
-        <v>14.33732863583161</v>
+        <v>12.64942687252907</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.09257720096527</v>
+        <v>67.23708013681492</v>
       </c>
       <c r="D25" t="n">
-        <v>11.52806889845996</v>
+        <v>12.10133175144695</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.43770721410353</v>
+        <v>65.27483991627267</v>
       </c>
       <c r="D26" t="n">
-        <v>12.96929367691316</v>
+        <v>12.15331808573353</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.18087619357723</v>
+        <v>62.9679568787373</v>
       </c>
       <c r="D27" t="n">
-        <v>13.44206875355876</v>
+        <v>12.71798486278768</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.26630436382969</v>
+        <v>61.64408644379787</v>
       </c>
       <c r="D28" t="n">
-        <v>13.14269043641961</v>
+        <v>13.11791650294024</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.36849190543187</v>
+        <v>59.4282256172794</v>
       </c>
       <c r="D29" t="n">
-        <v>13.94238999213555</v>
+        <v>11.68028527023009</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.84921271759479</v>
+        <v>62.07636909032922</v>
       </c>
       <c r="D30" t="n">
-        <v>14.15578517017186</v>
+        <v>11.57326870875317</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.64997333212138</v>
+        <v>61.63540444310193</v>
       </c>
       <c r="D31" t="n">
-        <v>13.00837167449</v>
+        <v>11.44172065722405</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.73625846995298</v>
+        <v>57.75798796936571</v>
       </c>
       <c r="D32" t="n">
-        <v>11.71828921884844</v>
+        <v>12.04152684388295</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.46731967297731</v>
+        <v>57.87195822335377</v>
       </c>
       <c r="D33" t="n">
-        <v>12.53630394984553</v>
+        <v>12.98889661031886</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.55861554778441</v>
+        <v>59.05952934019805</v>
       </c>
       <c r="D34" t="n">
-        <v>12.57806719416312</v>
+        <v>13.33110754020025</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.40747298685586</v>
+        <v>57.04753655305539</v>
       </c>
       <c r="D35" t="n">
-        <v>13.92293634412075</v>
+        <v>12.24976189436267</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.30398178510049</v>
+        <v>57.69915451194055</v>
       </c>
       <c r="D36" t="n">
-        <v>12.94535326809268</v>
+        <v>14.07201808018482</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.15639421302259</v>
+        <v>56.01992075533459</v>
       </c>
       <c r="D37" t="n">
-        <v>12.95042749120785</v>
+        <v>11.7207030453211</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>52.82187407086962</v>
+        <v>53.79071285841416</v>
       </c>
       <c r="D38" t="n">
-        <v>12.6778231101981</v>
+        <v>13.3023713942591</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.31966444812371</v>
+        <v>53.89769776396556</v>
       </c>
       <c r="D39" t="n">
-        <v>14.33580549093645</v>
+        <v>12.85682959847334</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.40491479325998</v>
+        <v>52.37758417539554</v>
       </c>
       <c r="D40" t="n">
-        <v>13.32860703562115</v>
+        <v>12.17314517394493</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.31105813160054</v>
+        <v>50.33617062437693</v>
       </c>
       <c r="D41" t="n">
-        <v>12.10851343970891</v>
+        <v>12.31520726590134</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.81239829493003</v>
+        <v>50.43552912039748</v>
       </c>
       <c r="D42" t="n">
-        <v>13.28928311161948</v>
+        <v>13.24513825826661</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>46.99611921115277</v>
+        <v>50.23125686500543</v>
       </c>
       <c r="D43" t="n">
-        <v>15.61588743819565</v>
+        <v>11.57864547963536</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.37910916229686</v>
+        <v>49.69292049317659</v>
       </c>
       <c r="D44" t="n">
-        <v>14.14189301606678</v>
+        <v>11.91315515354319</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.43924513521181</v>
+        <v>45.81564142652289</v>
       </c>
       <c r="D45" t="n">
-        <v>12.9477371330341</v>
+        <v>12.72022576030053</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.02725583354758</v>
+        <v>46.33538830557217</v>
       </c>
       <c r="D46" t="n">
-        <v>13.73475884224322</v>
+        <v>12.69506683014635</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.46166224756139</v>
+        <v>44.94079773850656</v>
       </c>
       <c r="D47" t="n">
-        <v>12.55421306459195</v>
+        <v>13.15599499916996</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>46.6346468556074</v>
+        <v>42.72682105436556</v>
       </c>
       <c r="D48" t="n">
-        <v>14.15497064900563</v>
+        <v>12.96632570983911</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.68612740954811</v>
+        <v>43.31574081779218</v>
       </c>
       <c r="D49" t="n">
-        <v>13.38880149354182</v>
+        <v>15.22282096927686</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.30155996736276</v>
+        <v>41.49261401312872</v>
       </c>
       <c r="D50" t="n">
-        <v>12.63071148935795</v>
+        <v>11.80693839072668</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>43.70995754755927</v>
+        <v>40.66001230208359</v>
       </c>
       <c r="D51" t="n">
-        <v>14.41463350827686</v>
+        <v>13.06122747438183</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.6365451829034</v>
+        <v>40.15358274589735</v>
       </c>
       <c r="D52" t="n">
-        <v>12.58531303610152</v>
+        <v>13.56353283214898</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.92393303593274</v>
+        <v>37.75965751882354</v>
       </c>
       <c r="D53" t="n">
-        <v>13.29408567378748</v>
+        <v>12.72027696060463</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.37988530271338</v>
+        <v>36.458811172884</v>
       </c>
       <c r="D54" t="n">
-        <v>13.33472545237324</v>
+        <v>13.36727992160255</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>34.50052594190653</v>
+        <v>32.80713563776979</v>
       </c>
       <c r="D55" t="n">
-        <v>13.92626038325924</v>
+        <v>13.79584829669579</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.32590344907575</v>
+        <v>37.57129568554421</v>
       </c>
       <c r="D56" t="n">
-        <v>14.60552169849044</v>
+        <v>12.39592489115027</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.48844193070487</v>
+        <v>34.42999566504024</v>
       </c>
       <c r="D57" t="n">
-        <v>14.0236199654162</v>
+        <v>14.51270269388461</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.56716984347065</v>
+        <v>32.6989582649676</v>
       </c>
       <c r="D58" t="n">
-        <v>12.9048401146728</v>
+        <v>12.56224194225865</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>35.22352871924158</v>
+        <v>30.03814399033883</v>
       </c>
       <c r="D59" t="n">
-        <v>12.527808189003</v>
+        <v>13.47856580466219</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>34.00450879100595</v>
+        <v>31.24627208192528</v>
       </c>
       <c r="D60" t="n">
-        <v>13.46655855088573</v>
+        <v>14.31965331901814</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.16102520462411</v>
+        <v>31.16825441020635</v>
       </c>
       <c r="D61" t="n">
-        <v>13.46725035953619</v>
+        <v>12.84263182042116</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.56856634150657</v>
+        <v>27.54002385191652</v>
       </c>
       <c r="D62" t="n">
-        <v>13.93981977673857</v>
+        <v>12.84874459805807</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.67832180746111</v>
+        <v>26.99772496203509</v>
       </c>
       <c r="D63" t="n">
-        <v>13.32204819092203</v>
+        <v>16.16322598228012</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.67483017194204</v>
+        <v>28.08872343514467</v>
       </c>
       <c r="D64" t="n">
-        <v>13.22071957729217</v>
+        <v>11.82243844013681</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.84246649779956</v>
+        <v>26.51806861749614</v>
       </c>
       <c r="D65" t="n">
-        <v>14.76723826271709</v>
+        <v>12.30355348829151</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.73298076632557</v>
+        <v>25.01285307906723</v>
       </c>
       <c r="D66" t="n">
-        <v>12.81217909818856</v>
+        <v>14.53687946230183</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.99218357921863</v>
+        <v>23.00002985133712</v>
       </c>
       <c r="D67" t="n">
-        <v>12.68356789474273</v>
+        <v>13.21247109523926</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.85688093974583</v>
+        <v>24.27985599318322</v>
       </c>
       <c r="D68" t="n">
-        <v>12.12150824639569</v>
+        <v>13.88096565125568</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.54295802697888</v>
+        <v>23.18031439316471</v>
       </c>
       <c r="D69" t="n">
-        <v>11.71306795631625</v>
+        <v>14.6505138611875</v>
       </c>
     </row>
   </sheetData>
